--- a/data/trans_dic/P36BPD01_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +580,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>96,03; 98,57</t>
+          <t>96,13; 98,61</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>95,6; 98,37</t>
+          <t>95,52; 98,47</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>96,32; 98,26</t>
+          <t>96,3; 98,24</t>
         </is>
       </c>
     </row>
@@ -629,17 +630,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>94,23; 98,17</t>
+          <t>94,35; 98,13</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>93,61; 97,37</t>
+          <t>93,49; 97,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>94,77; 97,49</t>
+          <t>94,68; 97,39</t>
         </is>
       </c>
     </row>
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>94,83; 99,02</t>
+          <t>94,93; 99,18</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>95,93; 99,23</t>
+          <t>96,08; 99,29</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>95,61; 99,09</t>
+          <t>95,74; 98,98</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>89,74; 94,38</t>
+          <t>90,07; 94,52</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>93,5; 97,94</t>
+          <t>93,53; 97,6</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>92,26; 95,76</t>
+          <t>92,26; 95,66</t>
         </is>
       </c>
     </row>
@@ -779,17 +780,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>91,03; 95,51</t>
+          <t>91,01; 95,6</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>94,19; 96,88</t>
+          <t>94,31; 96,88</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>93,58; 96,14</t>
+          <t>93,68; 96,0</t>
         </is>
       </c>
     </row>
@@ -829,17 +830,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>87,58; 98,17</t>
+          <t>87,83; 98,12</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>91,72; 95,56</t>
+          <t>92,03; 95,65</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>92,11; 95,9</t>
+          <t>92,32; 95,86</t>
         </is>
       </c>
     </row>
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>94,02; 96,27</t>
+          <t>94,13; 96,35</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>94,77; 96,47</t>
+          <t>94,79; 96,38</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>94,67; 96,06</t>
+          <t>94,59; 96,01</t>
         </is>
       </c>
     </row>
@@ -913,4 +914,610 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que utilizan como principal grasa para cocinar el aceite de oliva</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>537</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>666</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>1203</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>491666</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>435777</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>927443</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>484202; 496731</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>427408; 440632</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>915970; 934490</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>464</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>567</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>1031</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>434096</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>366730</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>800827</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>423867; 440834</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>357673; 372564</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>787573; 810066</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>462</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>744</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>646132</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>163713</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>809846</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>631083; 659275</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>160361; 165733</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>796214; 823180</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>1051</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>1151</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>2202</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>954392</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>930856</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>1885248</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>928764; 974643</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>913572; 953321</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>1852436; 1920830</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>494</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>1219</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>1713</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>443976</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>804469</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>1248445</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>431423; 453176</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>793483; 815114</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>1232231; 1262832</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1094</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>1196</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>223047</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>711195</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>934242</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>206462; 230658</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>696079; 723461</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>915259; 950328</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>3110</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>4979</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>8089</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>3193311</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>3412741</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>6606051</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>3160774; 3235357</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>3385455; 3442148</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>6554143; 6652526</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P36BPD01_2023-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P36BPD01_2023-Clase-trans_dic.xlsx
@@ -797,7 +797,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1357,7 +1357,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
